--- a/LinkCatExcel.xlsx
+++ b/LinkCatExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxvo\Desktop\PythonInOut\PythonExcels\LinkChecker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxvo\PycharmProjects\PageQaulityChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFA0E24-03ED-4BEC-BB29-F2335FF76D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189DF502-B640-4516-B54A-95C27E302939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-9690" windowWidth="16440" windowHeight="29040" xr2:uid="{B633C4EC-F46C-4A5D-929D-604840AC2FE2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B633C4EC-F46C-4A5D-929D-604840AC2FE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>URL</t>
   </si>
@@ -43,241 +43,7 @@
     <t>https://player.fm</t>
   </si>
   <si>
-    <t>https://answers-to-all.com</t>
-  </si>
-  <si>
-    <t>https://zaubee.com</t>
-  </si>
-  <si>
-    <t>https://tiktok.com</t>
-  </si>
-  <si>
-    <t>https://libsyn.com</t>
-  </si>
-  <si>
-    <t>https://anchor.fm</t>
-  </si>
-  <si>
-    <t>https://askaname.com</t>
-  </si>
-  <si>
-    <t>https://wowsome.com.my</t>
-  </si>
-  <si>
-    <t>https://archive.org</t>
-  </si>
-  <si>
-    <t>https://edetaria.com</t>
-  </si>
-  <si>
-    <t>https://wiley.com</t>
-  </si>
-  <si>
-    <t>https://first-law-comic.com</t>
-  </si>
-  <si>
-    <t>https://helpmecovid.com</t>
-  </si>
-  <si>
-    <t>https://goodreads.com</t>
-  </si>
-  <si>
-    <t>https://springer.com</t>
-  </si>
-  <si>
-    <t>https://cvfarmerandminer.com</t>
-  </si>
-  <si>
-    <t>https://simbolics.cat</t>
-  </si>
-  <si>
-    <t>https://theavanty.com</t>
-  </si>
-  <si>
-    <t>https://montalvospirit.com</t>
-  </si>
-  <si>
-    <t>https://bravoplaya.com</t>
-  </si>
-  <si>
-    <t>https://archiveofourown.org</t>
-  </si>
-  <si>
-    <t>https://etsy.com</t>
-  </si>
-  <si>
-    <t>https://greed-head.com</t>
-  </si>
-  <si>
-    <t>https://freepik.com</t>
-  </si>
-  <si>
-    <t>https://discogs.com</t>
-  </si>
-  <si>
-    <t>https://shockeyconsulting.com</t>
-  </si>
-  <si>
-    <t>https://visualvisitor.com</t>
-  </si>
-  <si>
-    <t>https://pornhub.com</t>
-  </si>
-  <si>
-    <t>https://microblife.in</t>
-  </si>
-  <si>
-    <t>https://ctschoolcounselor.org</t>
-  </si>
-  <si>
-    <t>https://sidmartin-bio.com</t>
-  </si>
-  <si>
-    <t>https://aquavac.com.do</t>
-  </si>
-  <si>
-    <t>https://navman1gps.com</t>
-  </si>
-  <si>
-    <t>https://pwdnutrition.com</t>
-  </si>
-  <si>
-    <t>https://corespite.com.tw</t>
-  </si>
-  <si>
-    <t>https://agrichembio.com</t>
-  </si>
-  <si>
-    <t>https://tenor.com</t>
-  </si>
-  <si>
-    <t>https://produtoseletronicos.online</t>
-  </si>
-  <si>
-    <t>https://rditdev.co.uk</t>
-  </si>
-  <si>
-    <t>https://descubrelosaltos.site</t>
-  </si>
-  <si>
-    <t>https://xnxx.com</t>
-  </si>
-  <si>
-    <t>https://xvideos.com</t>
-  </si>
-  <si>
-    <t>https://restaurant-norman.com</t>
-  </si>
-  <si>
-    <t>https://voiceofthesouth.com.au</t>
-  </si>
-  <si>
-    <t>https://otosection.com</t>
-  </si>
-  <si>
-    <t>https://eatingexpired.com</t>
-  </si>
-  <si>
-    <t>https://newhdxxx.com</t>
-  </si>
-  <si>
-    <t>https://webcontactus.com</t>
-  </si>
-  <si>
-    <t>https://aliexpress.com</t>
-  </si>
-  <si>
-    <t>https://redbubble.com</t>
-  </si>
-  <si>
-    <t>https://bobvila.com</t>
-  </si>
-  <si>
-    <t>https://politico.com</t>
-  </si>
-  <si>
-    <t>https://aventoura-provida.org</t>
-  </si>
-  <si>
-    <t>https://indress.net</t>
-  </si>
-  <si>
-    <t>https://acueductosuroccidentesasaima.com</t>
-  </si>
-  <si>
-    <t>https://allweneedisrighthere.com.au</t>
-  </si>
-  <si>
-    <t>https://washingtonpost.com</t>
-  </si>
-  <si>
-    <t>https://flickr.com</t>
-  </si>
-  <si>
-    <t>https://zgr.net</t>
-  </si>
-  <si>
-    <t>https://ru-facts.com</t>
-  </si>
-  <si>
-    <t>https://alloutfootball.co.uk</t>
-  </si>
-  <si>
-    <t>https://yourgamestips.com</t>
-  </si>
-  <si>
-    <t>https://sovpol.pl</t>
-  </si>
-  <si>
-    <t>https://europepmc.org</t>
-  </si>
-  <si>
-    <t>https://ab2l.org.br</t>
-  </si>
-  <si>
-    <t>https://countyschoolcalendars.com</t>
-  </si>
-  <si>
-    <t>https://deezer.com</t>
-  </si>
-  <si>
-    <t>https://researchgate.net</t>
-  </si>
-  <si>
-    <t>https://answeregy.com</t>
-  </si>
-  <si>
-    <t>https://gizmoxxx.com</t>
-  </si>
-  <si>
-    <t>https://huntingdaleteeball.asn.au</t>
-  </si>
-  <si>
-    <t>https://ignitedlearning.in</t>
-  </si>
-  <si>
-    <t>https://yably.com</t>
-  </si>
-  <si>
-    <t>https://alforja.cat</t>
-  </si>
-  <si>
-    <t>https://redfin.com</t>
-  </si>
-  <si>
-    <t>https://toutiao.com</t>
-  </si>
-  <si>
-    <t>https://650.org</t>
-  </si>
-  <si>
-    <t>https://aiohotzgirl.com</t>
-  </si>
-  <si>
-    <t>https://tritordeum.com</t>
-  </si>
-  <si>
-    <t>https://tucomarcasobreruedas.es</t>
+    <t>https://mvk-it.com</t>
   </si>
 </sst>
 </file>
@@ -660,7 +426,7 @@
   <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -677,555 +443,399 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A39" s="3"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="A52" s="4"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="A53" s="4"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A54" s="3"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A55" s="3"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A56" s="2"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A58" s="2"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A60" s="2"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="A61" s="3"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A62" s="2"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A63" s="2"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A64" s="2"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A65" s="2"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A67" s="2"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A68" s="2"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A69" s="2"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A70" s="2"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A71" s="2"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A72" s="2"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="A73" s="2"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A75" s="2"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A76" s="2"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A77" s="2"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A79" s="2"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="A80" s="2"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="A81" s="2"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
     </row>
@@ -1375,6 +985,9 @@
       <c r="C110" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{F754CEA2-E6F8-484F-AAC6-D6C71A001085}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>